--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +97,7 @@
     <t>Cspg4</t>
   </si>
   <si>
-    <t>M1</t>
+    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.539546354398402</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H2">
-        <v>0.539546354398402</v>
+        <v>1.772934</v>
       </c>
       <c r="I2">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J2">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.10966480581332</v>
+        <v>1.162471666666667</v>
       </c>
       <c r="N2">
-        <v>1.10966480581332</v>
+        <v>3.487415</v>
       </c>
       <c r="O2">
-        <v>0.06071456844881905</v>
+        <v>0.05948594836865682</v>
       </c>
       <c r="P2">
-        <v>0.06071456844881905</v>
+        <v>0.05948594836865682</v>
       </c>
       <c r="Q2">
-        <v>0.5987156005807875</v>
+        <v>0.6869951806233332</v>
       </c>
       <c r="R2">
-        <v>0.5987156005807875</v>
+        <v>6.182956625609999</v>
       </c>
       <c r="S2">
-        <v>0.00877134551457121</v>
+        <v>0.008094059807826084</v>
       </c>
       <c r="T2">
-        <v>0.00877134551457121</v>
+        <v>0.008094059807826086</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.539546354398402</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H3">
-        <v>0.539546354398402</v>
+        <v>1.772934</v>
       </c>
       <c r="I3">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J3">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.23817416087097</v>
+        <v>5.360490666666667</v>
       </c>
       <c r="N3">
-        <v>5.23817416087097</v>
+        <v>16.081472</v>
       </c>
       <c r="O3">
-        <v>0.2866031994264571</v>
+        <v>0.2743067897236206</v>
       </c>
       <c r="P3">
-        <v>0.2866031994264571</v>
+        <v>0.2743067897236206</v>
       </c>
       <c r="Q3">
-        <v>2.826237772201841</v>
+        <v>3.167932053205333</v>
       </c>
       <c r="R3">
-        <v>2.826237772201841</v>
+        <v>28.511388478848</v>
       </c>
       <c r="S3">
-        <v>0.04140514792376672</v>
+        <v>0.03732403403835809</v>
       </c>
       <c r="T3">
-        <v>0.04140514792376672</v>
+        <v>0.03732403403835809</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.539546354398402</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H4">
-        <v>0.539546354398402</v>
+        <v>1.772934</v>
       </c>
       <c r="I4">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J4">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.334090319000011</v>
+        <v>0.4960333333333334</v>
       </c>
       <c r="N4">
-        <v>0.334090319000011</v>
+        <v>1.4881</v>
       </c>
       <c r="O4">
-        <v>0.01827952858804678</v>
+        <v>0.02538299564789342</v>
       </c>
       <c r="P4">
-        <v>0.01827952858804678</v>
+        <v>0.02538299564789342</v>
       </c>
       <c r="Q4">
-        <v>0.1802572136562551</v>
+        <v>0.2931447872666667</v>
       </c>
       <c r="R4">
-        <v>0.1802572136562551</v>
+        <v>2.6383030854</v>
       </c>
       <c r="S4">
-        <v>0.002640816943702726</v>
+        <v>0.003453781783936239</v>
       </c>
       <c r="T4">
-        <v>0.002640816943702726</v>
+        <v>0.00345378178393624</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.539546354398402</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H5">
-        <v>0.539546354398402</v>
+        <v>1.772934</v>
       </c>
       <c r="I5">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J5">
-        <v>0.1444685474782753</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>11.5948176988346</v>
+        <v>0.1237266666666667</v>
       </c>
       <c r="N5">
-        <v>11.5948176988346</v>
+        <v>0.37118</v>
       </c>
       <c r="O5">
-        <v>0.634402703536677</v>
+        <v>0.006331335477847643</v>
       </c>
       <c r="P5">
-        <v>0.634402703536677</v>
+        <v>0.006331335477847643</v>
       </c>
       <c r="Q5">
-        <v>6.255941619320278</v>
+        <v>0.07311973801333332</v>
       </c>
       <c r="R5">
-        <v>6.255941619320278</v>
+        <v>0.65807764212</v>
       </c>
       <c r="S5">
-        <v>0.09165123709623463</v>
+        <v>0.0008614842568116746</v>
       </c>
       <c r="T5">
-        <v>0.09165123709623463</v>
+        <v>0.0008614842568116747</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.451202638590928</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H6">
-        <v>0.451202638590928</v>
+        <v>1.772934</v>
       </c>
       <c r="I6">
-        <v>0.1208136970701578</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J6">
-        <v>0.1208136970701578</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.10966480581332</v>
+        <v>0.1821596666666666</v>
       </c>
       <c r="N6">
-        <v>1.10966480581332</v>
+        <v>0.5464789999999999</v>
       </c>
       <c r="O6">
-        <v>0.06071456844881905</v>
+        <v>0.009321466352170649</v>
       </c>
       <c r="P6">
-        <v>0.06071456844881905</v>
+        <v>0.009321466352170649</v>
       </c>
       <c r="Q6">
-        <v>0.5006836883344598</v>
+        <v>0.1076523554873333</v>
       </c>
       <c r="R6">
-        <v>0.5006836883344598</v>
+        <v>0.9688711993859997</v>
       </c>
       <c r="S6">
-        <v>0.007335151480320988</v>
+        <v>0.001268341654125187</v>
       </c>
       <c r="T6">
-        <v>0.007335151480320988</v>
+        <v>0.001268341654125187</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.451202638590928</v>
+        <v>0.5909779999999999</v>
       </c>
       <c r="H7">
-        <v>0.451202638590928</v>
+        <v>1.772934</v>
       </c>
       <c r="I7">
-        <v>0.1208136970701578</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="J7">
-        <v>0.1208136970701578</v>
+        <v>0.1360667523977957</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.23817416087097</v>
+        <v>12.217072</v>
       </c>
       <c r="N7">
-        <v>5.23817416087097</v>
+        <v>36.65121600000001</v>
       </c>
       <c r="O7">
-        <v>0.2866031994264571</v>
+        <v>0.625171464429811</v>
       </c>
       <c r="P7">
-        <v>0.2866031994264571</v>
+        <v>0.6251714644298109</v>
       </c>
       <c r="Q7">
-        <v>2.363478002783802</v>
+        <v>7.220020776416</v>
       </c>
       <c r="R7">
-        <v>2.363478002783802</v>
+        <v>64.98018698774401</v>
       </c>
       <c r="S7">
-        <v>0.03462559211484603</v>
+        <v>0.08506505085673842</v>
       </c>
       <c r="T7">
-        <v>0.03462559211484603</v>
+        <v>0.08506505085673842</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.451202638590928</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H8">
-        <v>0.451202638590928</v>
+        <v>1.404332</v>
       </c>
       <c r="I8">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="J8">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.334090319000011</v>
+        <v>1.162471666666667</v>
       </c>
       <c r="N8">
-        <v>0.334090319000011</v>
+        <v>3.487415</v>
       </c>
       <c r="O8">
-        <v>0.01827952858804678</v>
+        <v>0.05948594836865682</v>
       </c>
       <c r="P8">
-        <v>0.01827952858804678</v>
+        <v>0.05948594836865682</v>
       </c>
       <c r="Q8">
-        <v>0.1507424334604898</v>
+        <v>0.5441653868644445</v>
       </c>
       <c r="R8">
-        <v>0.1507424334604898</v>
+        <v>4.89748848178</v>
       </c>
       <c r="S8">
-        <v>0.002208417429421573</v>
+        <v>0.006411263587953091</v>
       </c>
       <c r="T8">
-        <v>0.002208417429421573</v>
+        <v>0.006411263587953092</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,309 +962,1425 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.451202638590928</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H9">
-        <v>0.451202638590928</v>
+        <v>1.404332</v>
       </c>
       <c r="I9">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="J9">
-        <v>0.1208136970701578</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.5948176988346</v>
+        <v>5.360490666666667</v>
       </c>
       <c r="N9">
-        <v>11.5948176988346</v>
+        <v>16.081472</v>
       </c>
       <c r="O9">
-        <v>0.634402703536677</v>
+        <v>0.2743067897236206</v>
       </c>
       <c r="P9">
-        <v>0.634402703536677</v>
+        <v>0.2743067897236206</v>
       </c>
       <c r="Q9">
-        <v>5.231612339694964</v>
+        <v>2.509302859633778</v>
       </c>
       <c r="R9">
-        <v>5.231612339694964</v>
+        <v>22.583725736704</v>
       </c>
       <c r="S9">
-        <v>0.07664453604556926</v>
+        <v>0.02956417744211319</v>
       </c>
       <c r="T9">
-        <v>0.07664453604556926</v>
+        <v>0.02956417744211319</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.74394872368521</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H10">
-        <v>2.74394872368521</v>
+        <v>1.404332</v>
       </c>
       <c r="I10">
-        <v>0.7347177554515669</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="J10">
-        <v>0.7347177554515669</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.10966480581332</v>
+        <v>0.4960333333333334</v>
       </c>
       <c r="N10">
-        <v>1.10966480581332</v>
+        <v>1.4881</v>
       </c>
       <c r="O10">
-        <v>0.06071456844881905</v>
+        <v>0.02538299564789342</v>
       </c>
       <c r="P10">
-        <v>0.06071456844881905</v>
+        <v>0.02538299564789342</v>
       </c>
       <c r="Q10">
-        <v>3.044863327629856</v>
+        <v>0.2321984943555556</v>
       </c>
       <c r="R10">
-        <v>3.044863327629856</v>
+        <v>2.0897864492</v>
       </c>
       <c r="S10">
-        <v>0.04460807145392686</v>
+        <v>0.002735722976827535</v>
       </c>
       <c r="T10">
-        <v>0.04460807145392686</v>
+        <v>0.002735722976827535</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.74394872368521</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H11">
-        <v>2.74394872368521</v>
+        <v>1.404332</v>
       </c>
       <c r="I11">
-        <v>0.7347177554515669</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="J11">
-        <v>0.7347177554515669</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>5.23817416087097</v>
+        <v>0.1237266666666667</v>
       </c>
       <c r="N11">
-        <v>5.23817416087097</v>
+        <v>0.37118</v>
       </c>
       <c r="O11">
-        <v>0.2866031994264571</v>
+        <v>0.006331335477847643</v>
       </c>
       <c r="P11">
-        <v>0.2866031994264571</v>
+        <v>0.006331335477847643</v>
       </c>
       <c r="Q11">
-        <v>14.37328130316274</v>
+        <v>0.05791777241777778</v>
       </c>
       <c r="R11">
-        <v>14.37328130316274</v>
+        <v>0.5212599517600001</v>
       </c>
       <c r="S11">
-        <v>0.2105724593878444</v>
+        <v>0.0006823772962427552</v>
       </c>
       <c r="T11">
-        <v>0.2105724593878444</v>
+        <v>0.0006823772962427553</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.74394872368521</v>
+        <v>0.4681106666666667</v>
       </c>
       <c r="H12">
-        <v>2.74394872368521</v>
+        <v>1.404332</v>
       </c>
       <c r="I12">
-        <v>0.7347177554515669</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="J12">
-        <v>0.7347177554515669</v>
+        <v>0.1077777822120289</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.334090319000011</v>
+        <v>0.1821596666666666</v>
       </c>
       <c r="N12">
-        <v>0.334090319000011</v>
+        <v>0.5464789999999999</v>
       </c>
       <c r="O12">
-        <v>0.01827952858804678</v>
+        <v>0.009321466352170649</v>
       </c>
       <c r="P12">
-        <v>0.01827952858804678</v>
+        <v>0.009321466352170649</v>
       </c>
       <c r="Q12">
-        <v>0.916726704415665</v>
+        <v>0.08527088300311111</v>
       </c>
       <c r="R12">
-        <v>0.916726704415665</v>
+        <v>0.7674379470279999</v>
       </c>
       <c r="S12">
-        <v>0.01343029421492248</v>
+        <v>0.001004646970401004</v>
       </c>
       <c r="T12">
-        <v>0.01343029421492248</v>
+        <v>0.001004646970401004</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.4681106666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.404332</v>
+      </c>
+      <c r="I13">
+        <v>0.1077777822120289</v>
+      </c>
+      <c r="J13">
+        <v>0.1077777822120289</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>12.217072</v>
+      </c>
+      <c r="N13">
+        <v>36.65121600000001</v>
+      </c>
+      <c r="O13">
+        <v>0.625171464429811</v>
+      </c>
+      <c r="P13">
+        <v>0.6251714644298109</v>
+      </c>
+      <c r="Q13">
+        <v>5.718941718634668</v>
+      </c>
+      <c r="R13">
+        <v>51.47047546771201</v>
+      </c>
+      <c r="S13">
+        <v>0.06737959393849134</v>
+      </c>
+      <c r="T13">
+        <v>0.06737959393849134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.068176</v>
+      </c>
+      <c r="I14">
+        <v>0.00523227988829371</v>
+      </c>
+      <c r="J14">
+        <v>0.005232279888293711</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.162471666666667</v>
+      </c>
+      <c r="N14">
+        <v>3.487415</v>
+      </c>
+      <c r="O14">
+        <v>0.05948594836865682</v>
+      </c>
+      <c r="P14">
+        <v>0.05948594836865682</v>
+      </c>
+      <c r="Q14">
+        <v>0.02641755611555555</v>
+      </c>
+      <c r="R14">
+        <v>0.23775800504</v>
+      </c>
+      <c r="S14">
+        <v>0.0003112471312854011</v>
+      </c>
+      <c r="T14">
+        <v>0.0003112471312854011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.068176</v>
+      </c>
+      <c r="I15">
+        <v>0.00523227988829371</v>
+      </c>
+      <c r="J15">
+        <v>0.005232279888293711</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>5.360490666666667</v>
+      </c>
+      <c r="N15">
+        <v>16.081472</v>
+      </c>
+      <c r="O15">
+        <v>0.2743067897236206</v>
+      </c>
+      <c r="P15">
+        <v>0.2743067897236206</v>
+      </c>
+      <c r="Q15">
+        <v>0.1218189372302222</v>
+      </c>
+      <c r="R15">
+        <v>1.096370435072</v>
+      </c>
+      <c r="S15">
+        <v>0.001435249899093312</v>
+      </c>
+      <c r="T15">
+        <v>0.001435249899093312</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.068176</v>
+      </c>
+      <c r="I16">
+        <v>0.00523227988829371</v>
+      </c>
+      <c r="J16">
+        <v>0.005232279888293711</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4960333333333334</v>
+      </c>
+      <c r="N16">
+        <v>1.4881</v>
+      </c>
+      <c r="O16">
+        <v>0.02538299564789342</v>
+      </c>
+      <c r="P16">
+        <v>0.02538299564789342</v>
+      </c>
+      <c r="Q16">
+        <v>0.01127252284444445</v>
+      </c>
+      <c r="R16">
+        <v>0.1014527056</v>
+      </c>
+      <c r="S16">
+        <v>0.0001328109376331195</v>
+      </c>
+      <c r="T16">
+        <v>0.0001328109376331195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.068176</v>
+      </c>
+      <c r="I17">
+        <v>0.00523227988829371</v>
+      </c>
+      <c r="J17">
+        <v>0.005232279888293711</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1237266666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.37118</v>
+      </c>
+      <c r="O17">
+        <v>0.006331335477847643</v>
+      </c>
+      <c r="P17">
+        <v>0.006331335477847643</v>
+      </c>
+      <c r="Q17">
+        <v>0.002811729742222222</v>
+      </c>
+      <c r="R17">
+        <v>0.02530556768</v>
+      </c>
+      <c r="S17">
+        <v>3.312731928678266E-05</v>
+      </c>
+      <c r="T17">
+        <v>3.312731928678267E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.068176</v>
+      </c>
+      <c r="I18">
+        <v>0.00523227988829371</v>
+      </c>
+      <c r="J18">
+        <v>0.005232279888293711</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.1821596666666666</v>
+      </c>
+      <c r="N18">
+        <v>0.5464789999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.009321466352170649</v>
+      </c>
+      <c r="P18">
+        <v>0.009321466352170649</v>
+      </c>
+      <c r="Q18">
+        <v>0.004139639144888888</v>
+      </c>
+      <c r="R18">
+        <v>0.037256752304</v>
+      </c>
+      <c r="S18">
+        <v>4.877252092386902E-05</v>
+      </c>
+      <c r="T18">
+        <v>4.877252092386902E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02272533333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.068176</v>
+      </c>
+      <c r="I19">
+        <v>0.00523227988829371</v>
+      </c>
+      <c r="J19">
+        <v>0.005232279888293711</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>12.217072</v>
+      </c>
+      <c r="N19">
+        <v>36.65121600000001</v>
+      </c>
+      <c r="O19">
+        <v>0.625171464429811</v>
+      </c>
+      <c r="P19">
+        <v>0.6251714644298109</v>
+      </c>
+      <c r="Q19">
+        <v>0.2776370335573334</v>
+      </c>
+      <c r="R19">
+        <v>2.498733302016</v>
+      </c>
+      <c r="S19">
+        <v>0.003271072080071226</v>
+      </c>
+      <c r="T19">
+        <v>0.003271072080071226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.31118</v>
+      </c>
+      <c r="I20">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J20">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.162471666666667</v>
+      </c>
+      <c r="N20">
+        <v>3.487415</v>
+      </c>
+      <c r="O20">
+        <v>0.05948594836865682</v>
+      </c>
+      <c r="P20">
+        <v>0.05948594836865682</v>
+      </c>
+      <c r="Q20">
+        <v>0.1205793110777778</v>
+      </c>
+      <c r="R20">
+        <v>1.0852137997</v>
+      </c>
+      <c r="S20">
+        <v>0.001420644835622376</v>
+      </c>
+      <c r="T20">
+        <v>0.001420644835622376</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.31118</v>
+      </c>
+      <c r="I21">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J21">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>5.360490666666667</v>
+      </c>
+      <c r="N21">
+        <v>16.081472</v>
+      </c>
+      <c r="O21">
+        <v>0.2743067897236206</v>
+      </c>
+      <c r="P21">
+        <v>0.2743067897236206</v>
+      </c>
+      <c r="Q21">
+        <v>0.5560258285511112</v>
+      </c>
+      <c r="R21">
+        <v>5.004232456960001</v>
+      </c>
+      <c r="S21">
+        <v>0.006551001284907544</v>
+      </c>
+      <c r="T21">
+        <v>0.006551001284907545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.74394872368521</v>
-      </c>
-      <c r="H13">
-        <v>2.74394872368521</v>
-      </c>
-      <c r="I13">
-        <v>0.7347177554515669</v>
-      </c>
-      <c r="J13">
-        <v>0.7347177554515669</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>11.5948176988346</v>
-      </c>
-      <c r="N13">
-        <v>11.5948176988346</v>
-      </c>
-      <c r="O13">
-        <v>0.634402703536677</v>
-      </c>
-      <c r="P13">
-        <v>0.634402703536677</v>
-      </c>
-      <c r="Q13">
-        <v>31.81558522607989</v>
-      </c>
-      <c r="R13">
-        <v>31.81558522607989</v>
-      </c>
-      <c r="S13">
-        <v>0.4661069303948732</v>
-      </c>
-      <c r="T13">
-        <v>0.4661069303948732</v>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.31118</v>
+      </c>
+      <c r="I22">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J22">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.4960333333333334</v>
+      </c>
+      <c r="N22">
+        <v>1.4881</v>
+      </c>
+      <c r="O22">
+        <v>0.02538299564789342</v>
+      </c>
+      <c r="P22">
+        <v>0.02538299564789342</v>
+      </c>
+      <c r="Q22">
+        <v>0.05145188422222223</v>
+      </c>
+      <c r="R22">
+        <v>0.4630669580000001</v>
+      </c>
+      <c r="S22">
+        <v>0.0006061973065693812</v>
+      </c>
+      <c r="T22">
+        <v>0.0006061973065693812</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.31118</v>
+      </c>
+      <c r="I23">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J23">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.1237266666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.37118</v>
+      </c>
+      <c r="O23">
+        <v>0.006331335477847643</v>
+      </c>
+      <c r="P23">
+        <v>0.006331335477847643</v>
+      </c>
+      <c r="Q23">
+        <v>0.01283375471111111</v>
+      </c>
+      <c r="R23">
+        <v>0.1155037924</v>
+      </c>
+      <c r="S23">
+        <v>0.0001512051046652932</v>
+      </c>
+      <c r="T23">
+        <v>0.0001512051046652932</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.31118</v>
+      </c>
+      <c r="I24">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J24">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.1821596666666666</v>
+      </c>
+      <c r="N24">
+        <v>0.5464789999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.009321466352170649</v>
+      </c>
+      <c r="P24">
+        <v>0.009321466352170649</v>
+      </c>
+      <c r="Q24">
+        <v>0.01889481502444444</v>
+      </c>
+      <c r="R24">
+        <v>0.17005333522</v>
+      </c>
+      <c r="S24">
+        <v>0.0002226154814170611</v>
+      </c>
+      <c r="T24">
+        <v>0.0002226154814170612</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.31118</v>
+      </c>
+      <c r="I25">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="J25">
+        <v>0.02388202381540772</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>12.217072</v>
+      </c>
+      <c r="N25">
+        <v>36.65121600000001</v>
+      </c>
+      <c r="O25">
+        <v>0.625171464429811</v>
+      </c>
+      <c r="P25">
+        <v>0.6251714644298109</v>
+      </c>
+      <c r="Q25">
+        <v>1.267236154986667</v>
+      </c>
+      <c r="R25">
+        <v>11.40512539488</v>
+      </c>
+      <c r="S25">
+        <v>0.01493035980222607</v>
+      </c>
+      <c r="T25">
+        <v>0.01493035980222607</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.157754</v>
+      </c>
+      <c r="H26">
+        <v>9.473262</v>
+      </c>
+      <c r="I26">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J26">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.162471666666667</v>
+      </c>
+      <c r="N26">
+        <v>3.487415</v>
+      </c>
+      <c r="O26">
+        <v>0.05948594836865682</v>
+      </c>
+      <c r="P26">
+        <v>0.05948594836865682</v>
+      </c>
+      <c r="Q26">
+        <v>3.670799555303333</v>
+      </c>
+      <c r="R26">
+        <v>33.03719599773</v>
+      </c>
+      <c r="S26">
+        <v>0.04324873300596986</v>
+      </c>
+      <c r="T26">
+        <v>0.04324873300596987</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.157754</v>
+      </c>
+      <c r="H27">
+        <v>9.473262</v>
+      </c>
+      <c r="I27">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J27">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>5.360490666666667</v>
+      </c>
+      <c r="N27">
+        <v>16.081472</v>
+      </c>
+      <c r="O27">
+        <v>0.2743067897236206</v>
+      </c>
+      <c r="P27">
+        <v>0.2743067897236206</v>
+      </c>
+      <c r="Q27">
+        <v>16.92711084462934</v>
+      </c>
+      <c r="R27">
+        <v>152.343997601664</v>
+      </c>
+      <c r="S27">
+        <v>0.1994323270591485</v>
+      </c>
+      <c r="T27">
+        <v>0.1994323270591485</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.157754</v>
+      </c>
+      <c r="H28">
+        <v>9.473262</v>
+      </c>
+      <c r="I28">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J28">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.4960333333333334</v>
+      </c>
+      <c r="N28">
+        <v>1.4881</v>
+      </c>
+      <c r="O28">
+        <v>0.02538299564789342</v>
+      </c>
+      <c r="P28">
+        <v>0.02538299564789342</v>
+      </c>
+      <c r="Q28">
+        <v>1.566351242466667</v>
+      </c>
+      <c r="R28">
+        <v>14.0971611822</v>
+      </c>
+      <c r="S28">
+        <v>0.01845448264292714</v>
+      </c>
+      <c r="T28">
+        <v>0.01845448264292715</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.157754</v>
+      </c>
+      <c r="H29">
+        <v>9.473262</v>
+      </c>
+      <c r="I29">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J29">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.1237266666666667</v>
+      </c>
+      <c r="N29">
+        <v>0.37118</v>
+      </c>
+      <c r="O29">
+        <v>0.006331335477847643</v>
+      </c>
+      <c r="P29">
+        <v>0.006331335477847643</v>
+      </c>
+      <c r="Q29">
+        <v>0.3906983765733333</v>
+      </c>
+      <c r="R29">
+        <v>3.51628538916</v>
+      </c>
+      <c r="S29">
+        <v>0.004603141500841137</v>
+      </c>
+      <c r="T29">
+        <v>0.004603141500841137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.157754</v>
+      </c>
+      <c r="H30">
+        <v>9.473262</v>
+      </c>
+      <c r="I30">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J30">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.1821596666666666</v>
+      </c>
+      <c r="N30">
+        <v>0.5464789999999999</v>
+      </c>
+      <c r="O30">
+        <v>0.009321466352170649</v>
+      </c>
+      <c r="P30">
+        <v>0.009321466352170649</v>
+      </c>
+      <c r="Q30">
+        <v>0.5752154160553332</v>
+      </c>
+      <c r="R30">
+        <v>5.176938744497999</v>
+      </c>
+      <c r="S30">
+        <v>0.006777089725303527</v>
+      </c>
+      <c r="T30">
+        <v>0.006777089725303528</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.157754</v>
+      </c>
+      <c r="H31">
+        <v>9.473262</v>
+      </c>
+      <c r="I31">
+        <v>0.7270411616864739</v>
+      </c>
+      <c r="J31">
+        <v>0.727041161686474</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>12.217072</v>
+      </c>
+      <c r="N31">
+        <v>36.65121600000001</v>
+      </c>
+      <c r="O31">
+        <v>0.625171464429811</v>
+      </c>
+      <c r="P31">
+        <v>0.6251714644298109</v>
+      </c>
+      <c r="Q31">
+        <v>38.57850797628801</v>
+      </c>
+      <c r="R31">
+        <v>347.2065717865921</v>
+      </c>
+      <c r="S31">
+        <v>0.4545253877522839</v>
+      </c>
+      <c r="T31">
+        <v>0.4545253877522838</v>
       </c>
     </row>
   </sheetData>
